--- a/Lab3/Lab03_WBT_TCs.xlsx
+++ b/Lab3/Lab03_WBT_TCs.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mano\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mano\Desktop\Colectiv\mair2547\Lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851EE9B1-7383-4644-8319-57320ED7A9A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A7592A-0CD9-44F3-A2E8-A50F07FB1E42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="2" r:id="rId1"/>
     <sheet name="F02b.CFG-Paths" sheetId="1" r:id="rId2"/>
     <sheet name="F02b.TCs" sheetId="3" r:id="rId3"/>
+    <sheet name="WBT-TCs" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="125">
   <si>
     <t>VVSS, Info Română, 2020-2021</t>
   </si>
@@ -346,12 +347,145 @@
   <si>
     <t>1 - 2(F) - 4(T) - 6(F) - 8(F)  - 4(F) - 5 - 10</t>
   </si>
+  <si>
+    <t>WBT Implemented TCs</t>
+  </si>
+  <si>
+    <t>Final        TC No.</t>
+  </si>
+  <si>
+    <t>Req. ID</t>
+  </si>
+  <si>
+    <t>TC No</t>
+  </si>
+  <si>
+    <t>input data</t>
+  </si>
+  <si>
+    <t>output data</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>actual result</t>
+  </si>
+  <si>
+    <t>Statistics</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Debugging</t>
+  </si>
+  <si>
+    <t>Re-testing</t>
+  </si>
+  <si>
+    <t>Regression Testing</t>
+  </si>
+  <si>
+    <t>#TCs run</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#TCs </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>passed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#TCs </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>falied</t>
+    </r>
+  </si>
+  <si>
+    <t>Coverage (%)</t>
+  </si>
+  <si>
+    <t>#Bugs</t>
+  </si>
+  <si>
+    <t>#Bugs Fixed</t>
+  </si>
+  <si>
+    <t>Re-tested</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#TCs  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>failed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#TCs </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>passed</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to be run again</t>
+    </r>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>not yet</t>
+  </si>
+  <si>
+    <t>F02b</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -438,8 +572,66 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -488,8 +680,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -595,11 +823,317 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -660,67 +1194,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -731,26 +1206,265 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1157,12 +1871,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
@@ -1374,198 +2088,193 @@
   </sheetPr>
   <dimension ref="B1:X21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="47"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="U5" s="30" t="s">
+      <c r="U5" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="K6" s="49" t="s">
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="K6" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
       <c r="U6" s="10"/>
       <c r="V6" s="10"/>
       <c r="W6" s="10"/>
       <c r="X6" s="10"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="U7" s="55" t="s">
+      <c r="U7" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="V7" s="55"/>
-      <c r="W7" s="55"/>
-      <c r="X7" s="53">
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="32">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="U8" s="55" t="s">
+      <c r="U8" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="V8" s="55"/>
-      <c r="W8" s="55"/>
-      <c r="X8" s="53">
+      <c r="V8" s="40"/>
+      <c r="W8" s="40"/>
+      <c r="X8" s="32">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="U9" s="55" t="s">
+      <c r="U9" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="V9" s="55" t="s">
+      <c r="V9" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="W9" s="55"/>
-      <c r="X9" s="53">
+      <c r="W9" s="40"/>
+      <c r="X9" s="32">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="U10" s="51"/>
-      <c r="V10" s="51"/>
-      <c r="W10" s="51"/>
-      <c r="X10" s="51"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="U11" s="51"/>
-      <c r="V11" s="51"/>
-      <c r="W11" s="51"/>
-      <c r="X11" s="51"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="U12" s="30" t="s">
+      <c r="U12" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="V12" s="31"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="31"/>
+      <c r="V12" s="48"/>
+      <c r="W12" s="48"/>
+      <c r="X12" s="48"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="U13" s="51"/>
-      <c r="V13" s="51"/>
-      <c r="W13" s="51"/>
-      <c r="X13" s="51"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="U14" s="52" t="s">
+      <c r="U14" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="V14" s="56" t="s">
+      <c r="V14" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="W14" s="56"/>
-      <c r="X14" s="56"/>
+      <c r="W14" s="41"/>
+      <c r="X14" s="41"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="U15" s="54" t="s">
+      <c r="U15" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="V15" s="50" t="s">
+      <c r="V15" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="W15" s="50"/>
-      <c r="X15" s="50"/>
+      <c r="W15" s="46"/>
+      <c r="X15" s="46"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="U16" s="54" t="s">
+      <c r="U16" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="V16" s="50" t="s">
+      <c r="V16" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="W16" s="50"/>
-      <c r="X16" s="50"/>
+      <c r="W16" s="46"/>
+      <c r="X16" s="46"/>
     </row>
     <row r="17" spans="21:24" x14ac:dyDescent="0.3">
-      <c r="U17" s="54" t="s">
+      <c r="U17" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="V17" s="50" t="s">
+      <c r="V17" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="W17" s="50"/>
-      <c r="X17" s="50"/>
+      <c r="W17" s="46"/>
+      <c r="X17" s="46"/>
     </row>
     <row r="18" spans="21:24" x14ac:dyDescent="0.3">
-      <c r="U18" s="54" t="s">
+      <c r="U18" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="V18" s="50" t="s">
+      <c r="V18" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="W18" s="50"/>
-      <c r="X18" s="50"/>
+      <c r="W18" s="46"/>
+      <c r="X18" s="46"/>
     </row>
     <row r="19" spans="21:24" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="U19" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="V19" s="58" t="s">
+      <c r="V19" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="W19" s="59"/>
-      <c r="X19" s="60"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="39"/>
     </row>
     <row r="20" spans="21:24" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="U20" s="54" t="s">
+      <c r="U20" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="V20" s="58" t="s">
+      <c r="V20" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="W20" s="59"/>
-      <c r="X20" s="60"/>
+      <c r="W20" s="38"/>
+      <c r="X20" s="39"/>
     </row>
     <row r="21" spans="21:24" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="U21" s="54" t="s">
+      <c r="U21" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="V21" s="61" t="s">
+      <c r="V21" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="W21" s="61"/>
-      <c r="X21" s="61"/>
+      <c r="W21" s="42"/>
+      <c r="X21" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="V21:X21"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="V18:X18"/>
@@ -1576,6 +2285,11 @@
     <mergeCell ref="U5:X5"/>
     <mergeCell ref="V16:X16"/>
     <mergeCell ref="V17:X17"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="V21:X21"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1591,8 +2305,8 @@
   </sheetPr>
   <dimension ref="B1:AA26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E21:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1619,12 +2333,12 @@
     <row r="1" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B1" s="14"/>
       <c r="C1" s="10"/>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="32"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="53"/>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
@@ -1646,13 +2360,13 @@
       <c r="AA1" s="10"/>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="35"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="56"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
@@ -1702,146 +2416,146 @@
       <c r="AA5" s="10"/>
     </row>
     <row r="6" spans="2:27" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="36"/>
-      <c r="Z6" s="36"/>
-      <c r="AA6" s="36"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="57"/>
+      <c r="V6" s="57"/>
+      <c r="W6" s="57"/>
+      <c r="X6" s="57"/>
+      <c r="Y6" s="57"/>
+      <c r="Z6" s="57"/>
+      <c r="AA6" s="57"/>
     </row>
     <row r="7" spans="2:27" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="36"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="44" t="s">
+      <c r="B7" s="57"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="42" t="s">
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="42"/>
-      <c r="U7" s="41" t="s">
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="51"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="41"/>
+      <c r="V7" s="52"/>
+      <c r="W7" s="52"/>
+      <c r="X7" s="52"/>
+      <c r="Y7" s="52"/>
+      <c r="Z7" s="52"/>
+      <c r="AA7" s="52"/>
     </row>
     <row r="8" spans="2:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="36"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="43" t="s">
+      <c r="B8" s="57"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43" t="s">
+      <c r="G8" s="50"/>
+      <c r="H8" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43" t="s">
+      <c r="I8" s="50"/>
+      <c r="J8" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43" t="s">
+      <c r="K8" s="50"/>
+      <c r="L8" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="M8" s="43"/>
-      <c r="N8" s="42" t="s">
+      <c r="M8" s="50"/>
+      <c r="N8" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="O8" s="42" t="s">
+      <c r="O8" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="P8" s="42" t="s">
+      <c r="P8" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="Q8" s="42" t="s">
+      <c r="Q8" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="R8" s="42" t="s">
+      <c r="R8" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="S8" s="42" t="s">
+      <c r="S8" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="T8" s="42" t="s">
+      <c r="T8" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="U8" s="41">
+      <c r="U8" s="52">
         <v>0</v>
       </c>
-      <c r="V8" s="41">
+      <c r="V8" s="52">
         <v>1</v>
       </c>
-      <c r="W8" s="41">
+      <c r="W8" s="52">
         <v>2</v>
       </c>
-      <c r="X8" s="41" t="s">
+      <c r="X8" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="Y8" s="41" t="s">
+      <c r="Y8" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="Z8" s="41" t="s">
+      <c r="Z8" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="AA8" s="41" t="s">
+      <c r="AA8" s="52" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="9" spans="2:27" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="36"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="44"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="49"/>
       <c r="F9" s="15" t="s">
         <v>27</v>
       </c>
@@ -1866,20 +2580,20 @@
       <c r="M9" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="42"/>
-      <c r="S9" s="42"/>
-      <c r="T9" s="42"/>
-      <c r="U9" s="41"/>
-      <c r="V9" s="41"/>
-      <c r="W9" s="41"/>
-      <c r="X9" s="41"/>
-      <c r="Y9" s="41"/>
-      <c r="Z9" s="41"/>
-      <c r="AA9" s="41"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="52"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="52"/>
+      <c r="Z9" s="52"/>
+      <c r="AA9" s="52"/>
     </row>
     <row r="10" spans="2:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="16" t="s">
@@ -2077,7 +2791,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="2:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:27" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
         <v>48</v>
       </c>
@@ -2337,7 +3051,7 @@
       <c r="B21" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="57" t="s">
+      <c r="E21" s="34" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2387,18 +3101,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:M7"/>
-    <mergeCell ref="N7:T7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B6:B9"/>
@@ -2415,8 +3117,473 @@
     <mergeCell ref="R8:R9"/>
     <mergeCell ref="U7:AA7"/>
     <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:M7"/>
+    <mergeCell ref="N7:T7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="S8:S9"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D203AAA-1A15-4523-B8C8-8CE2FD5C6F21}">
+  <dimension ref="B1:O29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="24.77734375" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="28.77734375" customWidth="1"/>
+    <col min="7" max="7" width="29.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C1" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="79" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="77" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="73" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="75" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" s="71"/>
+    </row>
+    <row r="6" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="78"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="65" t="s">
+        <v>106</v>
+      </c>
+      <c r="G6" s="65" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="69">
+        <v>1</v>
+      </c>
+      <c r="C7" s="122" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="69" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="69">
+        <v>2</v>
+      </c>
+      <c r="C8" s="72"/>
+      <c r="D8" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="69" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="69">
+        <v>3</v>
+      </c>
+      <c r="C9" s="72"/>
+      <c r="D9" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="124" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="69" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="69">
+        <v>4</v>
+      </c>
+      <c r="C10" s="72"/>
+      <c r="D10" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="92">
+        <v>1</v>
+      </c>
+      <c r="F10" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="69" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="65">
+        <v>5</v>
+      </c>
+      <c r="C11" s="72"/>
+      <c r="D11" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="125" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="125" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="125" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="92">
+        <v>6</v>
+      </c>
+      <c r="C12" s="123"/>
+      <c r="D12" s="85" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="125">
+        <v>2</v>
+      </c>
+      <c r="F12" s="125" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="125" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="92">
+        <v>7</v>
+      </c>
+      <c r="C13" s="123"/>
+      <c r="D13" s="85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="101">
+        <v>3</v>
+      </c>
+      <c r="F13" s="101" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="101" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="92">
+        <v>8</v>
+      </c>
+      <c r="C14" s="123"/>
+      <c r="D14" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="101">
+        <v>4</v>
+      </c>
+      <c r="F14" s="101" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="101" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="92">
+        <v>9</v>
+      </c>
+      <c r="C15" s="123"/>
+      <c r="D15" s="91" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="101">
+        <v>5</v>
+      </c>
+      <c r="F15" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="92" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="83"/>
+      <c r="E17" s="126" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B19" s="25">
+        <v>1</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B20" s="24">
+        <v>2</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B21" s="24">
+        <v>3</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B22" s="24">
+        <v>4</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="84" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="83"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="93"/>
+      <c r="L25" s="83"/>
+      <c r="M25" s="83"/>
+      <c r="N25" s="83"/>
+      <c r="O25" s="83"/>
+    </row>
+    <row r="26" spans="2:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="83"/>
+      <c r="C26" s="115" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="116"/>
+      <c r="E26" s="116"/>
+      <c r="F26" s="116"/>
+      <c r="G26" s="117"/>
+      <c r="H26" s="86" t="s">
+        <v>110</v>
+      </c>
+      <c r="I26" s="115" t="s">
+        <v>111</v>
+      </c>
+      <c r="J26" s="116"/>
+      <c r="K26" s="116"/>
+      <c r="L26" s="116"/>
+      <c r="M26" s="117"/>
+      <c r="N26" s="112" t="s">
+        <v>112</v>
+      </c>
+      <c r="O26" s="113"/>
+    </row>
+    <row r="27" spans="2:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="109" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="110" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="106" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" s="106" t="s">
+        <v>115</v>
+      </c>
+      <c r="F27" s="118" t="s">
+        <v>116</v>
+      </c>
+      <c r="G27" s="104" t="s">
+        <v>117</v>
+      </c>
+      <c r="H27" s="82" t="s">
+        <v>118</v>
+      </c>
+      <c r="I27" s="102" t="s">
+        <v>119</v>
+      </c>
+      <c r="J27" s="106" t="s">
+        <v>113</v>
+      </c>
+      <c r="K27" s="106" t="s">
+        <v>114</v>
+      </c>
+      <c r="L27" s="108" t="s">
+        <v>120</v>
+      </c>
+      <c r="M27" s="120" t="s">
+        <v>116</v>
+      </c>
+      <c r="N27" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="O27" s="73" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B28" s="109"/>
+      <c r="C28" s="111"/>
+      <c r="D28" s="107"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="119"/>
+      <c r="G28" s="105"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="103"/>
+      <c r="J28" s="107"/>
+      <c r="K28" s="107"/>
+      <c r="L28" s="109"/>
+      <c r="M28" s="121"/>
+      <c r="N28" s="114"/>
+      <c r="O28" s="104"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B29" s="100" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="90">
+        <v>9</v>
+      </c>
+      <c r="D29" s="127">
+        <v>9</v>
+      </c>
+      <c r="E29" s="127">
+        <v>0</v>
+      </c>
+      <c r="F29" s="128">
+        <v>1</v>
+      </c>
+      <c r="G29" s="129">
+        <v>0</v>
+      </c>
+      <c r="H29" s="89" t="s">
+        <v>122</v>
+      </c>
+      <c r="I29" s="88" t="s">
+        <v>123</v>
+      </c>
+      <c r="J29" s="96">
+        <v>0</v>
+      </c>
+      <c r="K29" s="95"/>
+      <c r="L29" s="97"/>
+      <c r="M29" s="98"/>
+      <c r="N29" s="87" t="s">
+        <v>123</v>
+      </c>
+      <c r="O29" s="99">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="C7:C15"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="I26:M26"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>